--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1815645.583829903</v>
+        <v>1912315.560314277</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836234</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.882709509</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>319.5469155288123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>146.885007461987</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>16.88986550434897</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>68.2532749040591</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>308.3514788822852</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>44.45884869240874</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>79.3292071608919</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>27.26618645491687</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>169.3371101986603</v>
+        <v>121.0471358344614</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1302,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>49.12877922542946</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>54.89632529172506</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1576,19 +1578,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>212.547005917813</v>
       </c>
       <c r="U13" t="n">
-        <v>140.557044124792</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1658,10 +1660,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>206.8508346478128</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>119.5072213587456</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1901,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>136.4341214532066</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,19 +2055,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>266.740284710194</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>273.8248837082319</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>138.3049984757152</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>20.77256677351849</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,13 +2532,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>194.9437214015086</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2722,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>33.79426090525217</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>90.43200784035531</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>33.79695477618984</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>67.6570845062253</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>44.17904656871092</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3205,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3243,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>45.62938874067431</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3433,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,22 +3477,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>17.39296944734651</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>167.4600490509918</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>52.47380555569109</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3715,16 +3717,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>126.061876018413</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3740,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3898,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>6.585303891380725</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3948,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>114.2656173771021</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4028,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4138,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>106.457272096764</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2388.358616186807</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="C2" t="n">
-        <v>2019.396099246395</v>
+        <v>1371.274936282423</v>
       </c>
       <c r="D2" t="n">
-        <v>1661.130400639645</v>
+        <v>1013.009237675673</v>
       </c>
       <c r="E2" t="n">
-        <v>1275.342148041401</v>
+        <v>627.2209850774286</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>216.2350802878211</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>202.311676226412</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>202.311676226412</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224076</v>
@@ -4340,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.358616186807</v>
+        <v>1761.414268258235</v>
       </c>
       <c r="Y2" t="n">
-        <v>2388.358616186807</v>
+        <v>1371.274936282423</v>
       </c>
     </row>
     <row r="3">
@@ -4398,31 +4400,31 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.00345202677755</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="C4" t="n">
-        <v>71.00345202677755</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>659.1862822831424</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>369.7691122461817</v>
       </c>
       <c r="Y4" t="n">
-        <v>252.6519168570173</v>
+        <v>369.7691122461817</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1546.007598651101</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C5" t="n">
-        <v>1177.04508171069</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D5" t="n">
-        <v>818.7793831039394</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>432.9911305056951</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>426.0456297564917</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1936.146930626913</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X5" t="n">
-        <v>1936.146930626913</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y5" t="n">
-        <v>1546.007598651101</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4683,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>398.3338608103785</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="C7" t="n">
-        <v>229.3976778824716</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="D7" t="n">
-        <v>229.3976778824716</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="E7" t="n">
-        <v>81.48458430007847</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="F7" t="n">
-        <v>81.48458430007847</v>
+        <v>291.8218666715635</v>
       </c>
       <c r="G7" t="n">
-        <v>81.48458430007847</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>81.48458430007847</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X7" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y7" t="n">
-        <v>579.9823256406182</v>
+        <v>438.7118141694738</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2118.304160219349</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278602</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X8" t="n">
-        <v>2289.351746278602</v>
+        <v>1718.957088916128</v>
       </c>
       <c r="Y8" t="n">
-        <v>2118.304160219349</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>444.0275768541694</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>444.0275768541694</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>444.0275768541694</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>296.1144832717763</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>149.2245357738659</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600563</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541694</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="W10" t="n">
-        <v>444.0275768541694</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X10" t="n">
-        <v>444.0275768541694</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y10" t="n">
-        <v>444.0275768541694</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="11">
@@ -5018,67 +5020,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>939.1634975427194</v>
+        <v>953.4728278125308</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.698881814246</v>
+        <v>1404.50704106094</v>
       </c>
       <c r="M11" t="n">
-        <v>2593.249184644075</v>
+        <v>2383.057343890768</v>
       </c>
       <c r="N11" t="n">
-        <v>3573.001456870722</v>
+        <v>3362.809616117415</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446538</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917025</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>2611.451764789527</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320243</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>854.4007383484569</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F13" t="n">
         <v>409.4810578558177</v>
@@ -5191,10 +5193,10 @@
         <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5224,25 +5226,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1734.57685067423</v>
+        <v>1549.963636560002</v>
       </c>
       <c r="U13" t="n">
-        <v>1592.600038426965</v>
+        <v>1260.860769685645</v>
       </c>
       <c r="V13" t="n">
-        <v>1592.600038426965</v>
+        <v>1006.176281479758</v>
       </c>
       <c r="W13" t="n">
-        <v>1303.182868390004</v>
+        <v>1006.176281479758</v>
       </c>
       <c r="X13" t="n">
-        <v>1075.193317491987</v>
+        <v>778.1867305817409</v>
       </c>
       <c r="Y13" t="n">
-        <v>854.4007383484569</v>
+        <v>557.3941514382108</v>
       </c>
     </row>
     <row r="14">
@@ -5273,37 +5275,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>786.6724891157196</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1237.706702364128</v>
+        <v>1460.488316778686</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
         <v>4461.783306331037</v>
@@ -5331,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5388,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>827.5554641779659</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="C16" t="n">
-        <v>658.619281250059</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="D16" t="n">
-        <v>508.5026418377232</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E16" t="n">
-        <v>360.5895482553301</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F16" t="n">
-        <v>360.5895482553301</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5440,46 +5442,46 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927053</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892254</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598119</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518532</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952192</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104707</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104707</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104707</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1747.403229086714</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1457.986059049753</v>
+        <v>788.5587891695069</v>
       </c>
       <c r="X16" t="n">
-        <v>1229.996508151736</v>
+        <v>560.5692382714896</v>
       </c>
       <c r="Y16" t="n">
-        <v>1009.203929008206</v>
+        <v>339.7766591279594</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5494,25 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5519,40 +5521,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1364.144379432264</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193957</v>
+        <v>1897.676284104189</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420604</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279157</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>2298.517587917024</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>2279.510296318562</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.187565809179</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789526</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102192</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324508</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878962</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297017</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.41016477312</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012236</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505716</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183571</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086244</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>679.6423705955727</v>
+        <v>499.6351384500838</v>
       </c>
       <c r="C19" t="n">
-        <v>510.7061876676659</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="D19" t="n">
-        <v>360.5895482553301</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="E19" t="n">
-        <v>360.5895482553301</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="F19" t="n">
-        <v>360.5895482553301</v>
+        <v>330.6989555221769</v>
       </c>
       <c r="G19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5701,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1405.39249366866</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1150.708005462773</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>861.2908354258125</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X19" t="n">
-        <v>861.2908354258125</v>
+        <v>681.2836032803235</v>
       </c>
       <c r="Y19" t="n">
-        <v>861.2908354258125</v>
+        <v>681.2836032803235</v>
       </c>
     </row>
     <row r="20">
@@ -5735,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5753,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2642.582663047918</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3189.3614801067</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5805,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5850,7 +5852,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,22 +5861,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.5554641779659</v>
+        <v>677.4388247656301</v>
       </c>
       <c r="C22" t="n">
-        <v>658.619281250059</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="D22" t="n">
         <v>508.5026418377232</v>
@@ -5935,25 +5937,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>1734.57685067423</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>1457.986059049753</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X22" t="n">
-        <v>1229.996508151736</v>
+        <v>859.0872895958698</v>
       </c>
       <c r="Y22" t="n">
-        <v>1009.203929008206</v>
+        <v>859.0872895958698</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5972,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5987,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>907.9024249011961</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1772.421240554551</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2750.971543384379</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6023,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
@@ -6069,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6099,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>263.2638710736754</v>
+        <v>3626.714225900168</v>
       </c>
       <c r="C25" t="n">
-        <v>263.2638710736754</v>
+        <v>3605.731835219847</v>
       </c>
       <c r="D25" t="n">
-        <v>263.2638710736754</v>
+        <v>3455.615195807511</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>3307.702102225118</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>3160.812154727208</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839441</v>
+        <v>3014.594967945065</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>4586.365838246546</v>
       </c>
       <c r="T25" t="n">
-        <v>1453.060509258584</v>
+        <v>4364.599222816072</v>
       </c>
       <c r="U25" t="n">
-        <v>1256.147659358071</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="V25" t="n">
-        <v>1001.463171152184</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="W25" t="n">
-        <v>712.0460011152229</v>
+        <v>4075.496355941716</v>
       </c>
       <c r="X25" t="n">
-        <v>484.0564502172056</v>
+        <v>3847.506805043698</v>
       </c>
       <c r="Y25" t="n">
-        <v>263.2638710736754</v>
+        <v>3626.714225900168</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>806.1613418786371</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1670.680157531992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2649.23046036182</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4270.801548335825</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6336,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3418.370823762059</v>
+        <v>946.9795471160882</v>
       </c>
       <c r="C28" t="n">
-        <v>3249.434640834152</v>
+        <v>778.0433641881813</v>
       </c>
       <c r="D28" t="n">
-        <v>3099.318001421816</v>
+        <v>627.9267247758455</v>
       </c>
       <c r="E28" t="n">
-        <v>2951.404907839423</v>
+        <v>480.0136311934524</v>
       </c>
       <c r="F28" t="n">
-        <v>2917.269290763411</v>
+        <v>333.123683695542</v>
       </c>
       <c r="G28" t="n">
-        <v>2917.269290763411</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>4586.365838246546</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>4364.599222816072</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U28" t="n">
-        <v>4075.496355941716</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V28" t="n">
-        <v>3820.811867735829</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="W28" t="n">
-        <v>3820.811867735829</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="X28" t="n">
-        <v>3820.811867735829</v>
+        <v>1349.420591089858</v>
       </c>
       <c r="Y28" t="n">
-        <v>3600.019288592299</v>
+        <v>1128.628011946328</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6467,46 +6469,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>630.8674397712578</v>
+        <v>3514.003315225219</v>
       </c>
       <c r="C31" t="n">
-        <v>461.9312568433509</v>
+        <v>3345.067132297312</v>
       </c>
       <c r="D31" t="n">
-        <v>311.8146174310151</v>
+        <v>3194.950492884976</v>
       </c>
       <c r="E31" t="n">
-        <v>163.901523848622</v>
+        <v>3194.950492884976</v>
       </c>
       <c r="F31" t="n">
-        <v>163.901523848622</v>
+        <v>3194.950492884976</v>
       </c>
       <c r="G31" t="n">
-        <v>163.901523848622</v>
+        <v>3160.812154727209</v>
       </c>
       <c r="H31" t="n">
-        <v>163.901523848622</v>
+        <v>3014.594967945066</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763412</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210348</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159224</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.93890460772</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207269</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913134</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833547</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267206</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="S31" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="T31" t="n">
-        <v>1866.513008862232</v>
+        <v>4688.221265177249</v>
       </c>
       <c r="U31" t="n">
-        <v>1577.410141987875</v>
+        <v>4399.118398302892</v>
       </c>
       <c r="V31" t="n">
-        <v>1322.725653781988</v>
+        <v>4144.433910097006</v>
       </c>
       <c r="W31" t="n">
-        <v>1033.308483745028</v>
+        <v>4144.433910097006</v>
       </c>
       <c r="X31" t="n">
-        <v>1033.308483745028</v>
+        <v>3916.444359198988</v>
       </c>
       <c r="Y31" t="n">
-        <v>812.5159046014975</v>
+        <v>3695.651780055458</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6688,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>416.3606924710442</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>750.1800661608906</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1614.698881814245</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M32" t="n">
-        <v>2593.249184644074</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N32" t="n">
-        <v>3573.001456870721</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>3154.542034367488</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>2980.089005086361</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>2831.15459542511</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>2671.917140419654</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>2525.382582446539</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>2389.019482279158</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>2298.517587917026</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>2279.510296318563</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>2373.18756580918</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>2611.451764789528</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>2978.149925102193</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>3425.426250324509</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>3898.949293878964</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>4309.910573297018</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>4620.410164773121</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>4777.907369012237</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>4648.469482505717</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>4455.826482183572</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>4227.758635317987</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>3992.606527086245</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>3738.369170358043</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>3530.51767015251</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>3322.757371387556</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.4617675965557</v>
+        <v>873.220281864028</v>
       </c>
       <c r="C34" t="n">
-        <v>804.8364680322012</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="D34" t="n">
-        <v>654.7198286198654</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E34" t="n">
-        <v>506.8067350374723</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T34" t="n">
-        <v>1734.57685067423</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.57685067423</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.892362468343</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.892362468343</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.902811570325</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.110232426795</v>
+        <v>1054.868746694268</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6935,52 +6937,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
         <v>487.9678785494859</v>
@@ -7005,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>827.5554641779659</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>658.619281250059</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>508.5026418377232</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7123,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1747.088925924109</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.890966501056</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="V37" t="n">
-        <v>1288.206478295169</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="W37" t="n">
-        <v>1119.054913597198</v>
+        <v>1457.986059049753</v>
       </c>
       <c r="X37" t="n">
-        <v>891.0653626991802</v>
+        <v>1229.996508151736</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>1009.203929008206</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
@@ -7178,19 +7180,19 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2047.844055175504</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3027.596327402151</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731605</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4302.335344088783</v>
       </c>
       <c r="Q38" t="n">
         <v>4719.034655862919</v>
@@ -7199,25 +7201,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>2980.089005086362</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K39" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L39" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.3110322772825</v>
+        <v>560.8310435707792</v>
       </c>
       <c r="C40" t="n">
-        <v>609.3748493493756</v>
+        <v>391.8948606428723</v>
       </c>
       <c r="D40" t="n">
-        <v>609.3748493493756</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G40" t="n">
         <v>241.7782212305366</v>
@@ -7354,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W40" t="n">
-        <v>999.1036114208126</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X40" t="n">
-        <v>999.1036114208126</v>
+        <v>781.6236227143094</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.3110322772825</v>
+        <v>560.8310435707792</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7400,7 +7402,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1617.665844847779</v>
       </c>
       <c r="M41" t="n">
-        <v>2536.15366264131</v>
+        <v>2151.197749519704</v>
       </c>
       <c r="N41" t="n">
-        <v>3515.905934867957</v>
+        <v>3130.950021746351</v>
       </c>
       <c r="O41" t="n">
-        <v>4018.878405747294</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P41" t="n">
-        <v>4413.652772104471</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q41" t="n">
-        <v>4661.939133860154</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>567.9454261809101</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C43" t="n">
-        <v>567.9454261809101</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D43" t="n">
-        <v>417.8287867685743</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E43" t="n">
-        <v>269.9156931861812</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7594,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="U43" t="n">
-        <v>1453.060509258584</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="V43" t="n">
-        <v>1198.376021052697</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="W43" t="n">
-        <v>1198.376021052697</v>
+        <v>1751.093193329805</v>
       </c>
       <c r="X43" t="n">
-        <v>970.38647015468</v>
+        <v>1523.103642431788</v>
       </c>
       <c r="Y43" t="n">
-        <v>749.5938910111498</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="44">
@@ -7625,49 +7627,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839484</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074203</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972667</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1395.429061104434</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N44" t="n">
-        <v>3008.107474639232</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O44" t="n">
-        <v>3757.393206660291</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7676,16 +7678,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
         <v>3150.95552873011</v>
@@ -7728,10 +7730,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>815.043388928086</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>815.043388928086</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>664.9267495157502</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>517.0136559333571</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H46" t="n">
         <v>95.56103444839442</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>1217.484432901856</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>996.6918537583257</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8538,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>169.5026663584964</v>
       </c>
       <c r="L11" t="n">
-        <v>226.7688596193112</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
@@ -8708,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,16 +8929,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>395.146024679809</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8945,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9167,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277306</v>
+        <v>297.8289162490797</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9179,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9401,28 +9403,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>308.4529749292112</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>123.4719563470472</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9647,19 +9649,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>189.7998007892634</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9893,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>201.9664098701129</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,22 +10117,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>73.34731650832759</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>64.28566532692543</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>344.7025836476837</v>
       </c>
       <c r="O35" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,10 +10828,10 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>201.9664098701126</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>170.1140909277309</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>229.7657919764152</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11081,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>57.67224444723733</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>329.4296048068266</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11309,16 +11311,16 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>248.8012738805276</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,19 +23466,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>7.001943358356158</v>
       </c>
       <c r="U13" t="n">
-        <v>145.6547940808209</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>45.28680867601517</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>167.0157769778454</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>29.59168680582164</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23941,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>19.4715534954189</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>12.69811462835912</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>87.40465691332199</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>146.4742543251093</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>91.2681168041043</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24610,13 +24612,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>111.6267871176791</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>75.59380041867291</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>132.2288534828384</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>28.69533590361279</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>123.0677745299169</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>172.9552646114205</v>
       </c>
     </row>
     <row r="35">
@@ -25321,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>202.1559798288227</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>119.0629492855992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>93.96015709087808</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>99.64777937062416</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>138.8357441315505</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25836,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>75.50340795433981</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26026,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>38.96377592616722</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26071,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523279</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="F2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="G2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="H2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="F2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="G2" t="n">
-        <v>536060.4122974273</v>
-      </c>
-      <c r="H2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="I2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="J2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974278</v>
       </c>
       <c r="K2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="L2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="O2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974278</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,28 +26426,28 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
@@ -26454,10 +26456,10 @@
         <v>25090.72367499382</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499383</v>
+        <v>25090.72367499381</v>
       </c>
     </row>
     <row r="5">
@@ -26473,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26491,13 +26493,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.268547294</v>
+        <v>-319688.2685472943</v>
       </c>
       <c r="C6" t="n">
         <v>270279.6106672502</v>
@@ -26528,40 +26530,40 @@
         <v>270279.6106672499</v>
       </c>
       <c r="E6" t="n">
-        <v>-312791.2436246865</v>
+        <v>-312791.2436246867</v>
       </c>
       <c r="F6" t="n">
+        <v>414586.1703687203</v>
+      </c>
+      <c r="G6" t="n">
+        <v>414586.1703687202</v>
+      </c>
+      <c r="H6" t="n">
+        <v>414586.1703687201</v>
+      </c>
+      <c r="I6" t="n">
+        <v>414586.1703687202</v>
+      </c>
+      <c r="J6" t="n">
+        <v>238162.9511761272</v>
+      </c>
+      <c r="K6" t="n">
+        <v>414586.1703687201</v>
+      </c>
+      <c r="L6" t="n">
         <v>414586.17036872</v>
       </c>
-      <c r="G6" t="n">
+      <c r="M6" t="n">
+        <v>284943.8555297751</v>
+      </c>
+      <c r="N6" t="n">
         <v>414586.1703687198</v>
       </c>
-      <c r="H6" t="n">
+      <c r="O6" t="n">
         <v>414586.17036872</v>
       </c>
-      <c r="I6" t="n">
-        <v>414586.17036872</v>
-      </c>
-      <c r="J6" t="n">
-        <v>238162.9511761273</v>
-      </c>
-      <c r="K6" t="n">
-        <v>414586.1703687202</v>
-      </c>
-      <c r="L6" t="n">
-        <v>414586.1703687202</v>
-      </c>
-      <c r="M6" t="n">
-        <v>284943.8555297754</v>
-      </c>
-      <c r="N6" t="n">
-        <v>414586.1703687201</v>
-      </c>
-      <c r="O6" t="n">
-        <v>414586.1703687202</v>
-      </c>
       <c r="P6" t="n">
-        <v>414586.17036872</v>
+        <v>414586.1703687203</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>87.32913021289909</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.046308782874206</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>131.7256075138634</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>183.8843684197689</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>74.38236278119535</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>369.3253213283863</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>87.98059509815901</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>107.6994353374213</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>216.9008284573933</v>
+        <v>265.1908028215922</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,10 +28022,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>118.1810230336214</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>197.2413180321029</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31039,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31841,7 +31843,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -32078,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32549,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32786,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33035,7 +33037,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
         <v>557.708647897025</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33746,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34448,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34857,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>506.6939529138969</v>
       </c>
       <c r="L11" t="n">
-        <v>682.3589740116433</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
@@ -35428,7 +35430,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>59.61319854222478</v>
@@ -35489,7 +35491,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35647,16 +35649,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>507.3053774831311</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>850.7361390721412</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35665,7 +35667,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>59.61319854222478</v>
@@ -35726,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35808,7 +35810,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721702009</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
@@ -35887,10 +35889,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200628</v>
+        <v>753.4190306414118</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35899,7 +35901,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>250.7943048037195</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>847.374090759438</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>460.6632429024477</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
@@ -36367,19 +36369,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597718</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36595,16 +36597,16 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>526.9910873446639</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36613,7 +36615,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>452.7607146738324</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36683,7 +36685,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
         <v>415.1124034525806</v>
@@ -36835,22 +36837,22 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>625.6491519212391</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222478</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>324.0400586087371</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>519.8757797192576</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>897.0044190605952</v>
       </c>
       <c r="O35" t="n">
-        <v>641.3060585282446</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37546,10 +37548,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>740.8875257003393</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
@@ -37561,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>420.9083957314504</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37777,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>685.3559063687474</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>398.7619862193719</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>117.2854429894621</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38020,7 +38022,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>785.0197191991588</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
@@ -38029,16 +38031,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>756.8542747687467</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912315.560314277</v>
+        <v>1906593.948346391</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.882709509</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>354.4962379753206</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>146.885007461987</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>68.2532749040591</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3514788822852</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>103.7979706824274</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>79.3292071608919</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>277.3889913079443</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>121.0471358344614</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>120.4120358099647</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>54.89632529172506</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>212.547005917813</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>172.9087972266228</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>141.465324968371</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>119.5072213587456</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>67.6332161998253</v>
       </c>
       <c r="G19" t="n">
-        <v>136.4341214532066</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>138.3049984757152</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>20.77256677351849</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,10 +2535,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>90.43200784035531</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>33.79695477618984</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>24.32202182135258</v>
       </c>
       <c r="Y34" t="n">
-        <v>45.62938874067431</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>17.39296944734651</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534531</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>74.75769145492451</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3717,7 +3717,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>126.061876018413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>114.2656173771021</v>
+        <v>173.6268892744762</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>106.457272096764</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4194,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1371.274936282423</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="C2" t="n">
-        <v>1371.274936282423</v>
+        <v>1271.815289262514</v>
       </c>
       <c r="D2" t="n">
-        <v>1013.009237675673</v>
+        <v>913.549590655764</v>
       </c>
       <c r="E2" t="n">
-        <v>627.2209850774286</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>216.2350802878211</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>202.311676226412</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>202.311676226412</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1371.274936282423</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4427,7 +4427,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.7691122461817</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>200.8329293182748</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4524,16 +4524,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>659.1862822831424</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>806.0470106353782</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>2537.273966515961</v>
       </c>
       <c r="X5" t="n">
-        <v>1507.652482896327</v>
+        <v>2163.808208254881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1117.513150920515</v>
+        <v>1773.668876279069</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,13 +4649,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>438.7118141694738</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>438.7118141694738</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>438.7118141694738</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>291.8218666715635</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1210.087414675782</v>
+        <v>1702.337823625995</v>
       </c>
       <c r="C8" t="n">
-        <v>1210.087414675782</v>
+        <v>1702.337823625995</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1702.337823625995</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1316.54957102775</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>905.5636662381428</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>487.5998581363297</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1718.957088916128</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1596.687254739904</v>
+        <v>1702.337823625995</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>175.5713008203288</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329973</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
@@ -5044,25 +5044,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>953.4728278125308</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1404.50704106094</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
-        <v>2383.057343890768</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>3362.809616117415</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
         <v>4778.05172241972</v>
@@ -5077,16 +5077,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>2980.089005086361</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>2525.382582446538</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>557.3941514382108</v>
+        <v>806.7425750505952</v>
       </c>
       <c r="C13" t="n">
-        <v>557.3941514382108</v>
+        <v>637.8063921226883</v>
       </c>
       <c r="D13" t="n">
-        <v>557.3941514382108</v>
+        <v>487.6897527103525</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T13" t="n">
-        <v>1549.963636560002</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U13" t="n">
-        <v>1260.860769685645</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="V13" t="n">
-        <v>1006.176281479758</v>
+        <v>1611.828520656345</v>
       </c>
       <c r="W13" t="n">
-        <v>1006.176281479758</v>
+        <v>1437.173169922382</v>
       </c>
       <c r="X13" t="n">
-        <v>778.1867305817409</v>
+        <v>1209.183619024365</v>
       </c>
       <c r="Y13" t="n">
-        <v>557.3941514382108</v>
+        <v>988.3910398808349</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1460.488316778686</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M14" t="n">
-        <v>2439.038619608515</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N14" t="n">
-        <v>2985.817436667297</v>
+        <v>3051.398683947134</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996752</v>
+        <v>3554.371154826471</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5314,16 +5314,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,10 +5412,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.7766591279594</v>
+        <v>482.6709267727787</v>
       </c>
       <c r="C16" t="n">
-        <v>339.7766591279594</v>
+        <v>482.6709267727787</v>
       </c>
       <c r="D16" t="n">
         <v>339.7766591279594</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W16" t="n">
-        <v>788.5587891695069</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X16" t="n">
-        <v>560.5692382714896</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y16" t="n">
-        <v>339.7766591279594</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1364.144379432264</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>1897.676284104189</v>
+        <v>2439.038619608515</v>
       </c>
       <c r="N17" t="n">
-        <v>2877.428556330835</v>
+        <v>2985.817436667297</v>
       </c>
       <c r="O17" t="n">
-        <v>3757.39320666029</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862918</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>499.6351384500838</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="C19" t="n">
-        <v>330.6989555221769</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="D19" t="n">
-        <v>330.6989555221769</v>
+        <v>331.580251073499</v>
       </c>
       <c r="E19" t="n">
-        <v>330.6989555221769</v>
+        <v>331.580251073499</v>
       </c>
       <c r="F19" t="n">
-        <v>330.6989555221769</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>681.2836032803235</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.2836032803235</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5752,22 +5752,22 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>351.3014367967911</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M20" t="n">
-        <v>2642.582663047918</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N20" t="n">
-        <v>3189.3614801067</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O20" t="n">
-        <v>3692.333950986037</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P20" t="n">
         <v>4405.689038432983</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5834,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>677.4388247656301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5943,19 +5943,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.890966501056</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>998.7893082582084</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>859.0872895958698</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>859.0872895958698</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
         <v>2005.253839749764</v>
@@ -5974,7 +5974,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
         <v>850.213983755162</v>
@@ -5992,19 +5992,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>907.9024249011961</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1772.421240554551</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2750.971543384379</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N23" t="n">
-        <v>3297.750360443162</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O23" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
         <v>4195.497197679677</v>
@@ -6025,16 +6025,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6071,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3626.714225900168</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>3605.731835219847</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>3455.615195807511</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>3307.702102225118</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M25" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>4586.365838246546</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>4364.599222816072</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>4075.496355941716</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>4075.496355941716</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>4075.496355941716</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>3847.506805043698</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3626.714225900168</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
         <v>2005.253839749764</v>
@@ -6211,7 +6211,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.213983755162</v>
@@ -6223,7 +6223,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6235,43 +6235,43 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2996.062531649192</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3876.027181978647</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4270.801548335825</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>946.9795471160882</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>778.0433641881813</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>627.9267247758455</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>480.0136311934524</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>333.123683695542</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1577.410141987875</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W28" t="n">
-        <v>1577.410141987875</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X28" t="n">
-        <v>1349.420591089858</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y28" t="n">
-        <v>1128.628011946328</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="29">
@@ -6442,73 +6442,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>888.4135721382777</v>
       </c>
       <c r="L29" t="n">
-        <v>1069.293752345675</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M29" t="n">
-        <v>2047.844055175504</v>
+        <v>2317.998088216515</v>
       </c>
       <c r="N29" t="n">
-        <v>2667.236715577531</v>
+        <v>3297.750360443162</v>
       </c>
       <c r="O29" t="n">
-        <v>3547.201365906985</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,43 +6518,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6563,7 +6563,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6572,22 +6572,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3514.003315225219</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>3345.067132297312</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>3194.950492884976</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>3194.950492884976</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>3194.950492884976</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>3160.812154727209</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>4688.221265177249</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U31" t="n">
-        <v>4399.118398302892</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V31" t="n">
-        <v>4144.433910097006</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W31" t="n">
-        <v>4144.433910097006</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X31" t="n">
-        <v>3916.444359198988</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y31" t="n">
-        <v>3695.651780055458</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="32">
@@ -6679,25 +6679,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,25 +6706,25 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1453.840519464784</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917026</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>873.220281864028</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C34" t="n">
-        <v>704.2840989361212</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D34" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,25 +6885,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1644.746393431758</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1355.643526557401</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V34" t="n">
-        <v>1100.959038351514</v>
+        <v>1131.039769608815</v>
       </c>
       <c r="W34" t="n">
-        <v>1100.959038351514</v>
+        <v>841.6225995718539</v>
       </c>
       <c r="X34" t="n">
-        <v>1100.959038351514</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y34" t="n">
-        <v>1054.868746694268</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690174</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749762</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143012</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544768</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551604</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001573</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
         <v>451.8458144277729</v>
@@ -6949,40 +6949,40 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946814</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331035</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604872</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261301</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991187</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730107</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>827.5554641779659</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>658.619281250059</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>508.5026418377232</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7125,22 +7125,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1747.088925924109</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1457.986059049753</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1457.986059049753</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>1457.986059049753</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>1229.996508151736</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1009.203929008206</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143013</v>
@@ -7162,43 +7162,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2047.844055175504</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3027.596327402151</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3907.560977731605</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4302.335344088783</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
         <v>4667.761053946815</v>
@@ -7207,19 +7207,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.8310435707792</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7338,13 +7338,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U40" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1198.376021052697</v>
+        <v>909.2731541783413</v>
       </c>
       <c r="W40" t="n">
-        <v>908.9588510157366</v>
+        <v>619.8559841413808</v>
       </c>
       <c r="X40" t="n">
-        <v>781.6236227143094</v>
+        <v>391.8664332433634</v>
       </c>
       <c r="Y40" t="n">
-        <v>560.8310435707792</v>
+        <v>171.0738540998333</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7402,55 +7402,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>939.1634975427196</v>
       </c>
       <c r="L41" t="n">
-        <v>1617.665844847779</v>
+        <v>1521.866738172569</v>
       </c>
       <c r="M41" t="n">
-        <v>2151.197749519704</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N41" t="n">
-        <v>3130.950021746351</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O41" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468566</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7505,7 +7505,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1120.662598458018</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C43" t="n">
-        <v>951.7264155301116</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7593,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1751.093193329805</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1751.093193329805</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1751.093193329805</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1751.093193329805</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1751.093193329805</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1523.103642431788</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1302.311063288258</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839484</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074203</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972667</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1395.429061104434</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2373.979363934262</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2920.758180993045</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>815.043388928086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>815.043388928086</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>664.9267495157502</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>517.0136559333571</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1445.473983799873</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1445.473983799873</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1217.484432901856</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>996.6918537583257</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8692,28 +8692,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>169.5026663584964</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>395.146024679809</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>248.840077268715</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>297.8289162490797</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>351.4175304294029</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9400,25 +9400,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>308.4529749292112</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>123.4719563470472</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9883,19 +9883,19 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>201.9664098701129</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>103.7862464855135</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10123,19 +10123,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>73.34731650832759</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>64.28566532692543</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>132.9990175570116</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10597,10 +10597,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>170.1140909277309</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,22 +11065,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>229.7657919764152</v>
+        <v>132.9990175570106</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11302,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>329.4296048068266</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>7.001943358356158</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>113.6142011099682</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>7.150148049841306</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>167.0157769778454</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>77.78783182310595</v>
       </c>
       <c r="G19" t="n">
-        <v>29.59168680582164</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>87.40465691332199</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>146.4742543251093</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>75.59380041867291</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>132.2288534828384</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>201.3876335676846</v>
       </c>
       <c r="Y34" t="n">
-        <v>172.9552646114205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,16 +25365,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>202.1559798288227</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270128</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,7 +25566,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>99.64777937062416</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
-        <v>75.50340795433981</v>
+        <v>16.14213605696571</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>38.96377592616722</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="J2" t="n">
         <v>536060.4122974278</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="L2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="M2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="N2" t="n">
         <v>536060.4122974273</v>
@@ -26355,7 +26355,7 @@
         <v>536060.4122974274</v>
       </c>
       <c r="P2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974275</v>
       </c>
     </row>
     <row r="3">
@@ -26401,7 +26401,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
         <v>25090.7236749938</v>
@@ -26435,28 +26435,28 @@
         <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="N4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499379</v>
       </c>
       <c r="P4" t="n">
         <v>25090.72367499381</v>
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
@@ -26493,25 +26493,25 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.2685472943</v>
+        <v>-319688.2685472944</v>
       </c>
       <c r="C6" t="n">
-        <v>270279.6106672502</v>
+        <v>270279.6106672501</v>
       </c>
       <c r="D6" t="n">
         <v>270279.6106672499</v>
       </c>
       <c r="E6" t="n">
-        <v>-312791.2436246867</v>
+        <v>-313463.1985269443</v>
       </c>
       <c r="F6" t="n">
-        <v>414586.1703687203</v>
+        <v>413914.2154664623</v>
       </c>
       <c r="G6" t="n">
-        <v>414586.1703687202</v>
+        <v>413914.2154664623</v>
       </c>
       <c r="H6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.2154664619</v>
       </c>
       <c r="I6" t="n">
-        <v>414586.1703687202</v>
+        <v>413914.2154664618</v>
       </c>
       <c r="J6" t="n">
-        <v>238162.9511761272</v>
+        <v>237490.9962738695</v>
       </c>
       <c r="K6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.2154664618</v>
       </c>
       <c r="L6" t="n">
-        <v>414586.17036872</v>
+        <v>413914.2154664619</v>
       </c>
       <c r="M6" t="n">
-        <v>284943.8555297751</v>
+        <v>284271.9006275171</v>
       </c>
       <c r="N6" t="n">
-        <v>414586.1703687198</v>
+        <v>413914.2154664618</v>
       </c>
       <c r="O6" t="n">
-        <v>414586.17036872</v>
+        <v>413914.215466462</v>
       </c>
       <c r="P6" t="n">
-        <v>414586.1703687203</v>
+        <v>413914.2154664623</v>
       </c>
     </row>
   </sheetData>
@@ -26773,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>27.43413209694114</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.046308782874206</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27596,10 +27596,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>183.8843684197689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74.38236278119535</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>70.61774212654413</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27776,22 +27776,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>87.98059509815901</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>46.53378145641284</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>265.1908028215922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>26.02192683660444</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>197.2413180321029</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -32080,7 +32080,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138796</v>
@@ -32095,7 +32095,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32335,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32551,7 +32551,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33043,7 +33043,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33748,7 +33748,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
         <v>557.708647897025</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34795,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,7 +35026,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
         <v>297.223041434342</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338903</v>
@@ -35412,28 +35412,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>506.6939529138969</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>850.7361390721412</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>647.6020634880869</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340054</v>
@@ -35743,7 +35743,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>753.4190306414118</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>890.3386462596296</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -35983,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127279</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,25 +36120,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>258.3236387357542</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>847.374090759438</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,22 +36360,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>460.6632429024477</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597718</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36603,19 +36603,19 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.7607146738324</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36691,7 +36691,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36831,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>440.977533040914</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36843,19 +36843,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>625.6491519212391</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37074,16 +37074,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>519.8757797192576</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>671.9201333872384</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37317,10 +37317,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>897.0044190605952</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37396,7 +37396,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
         <v>415.1124034525806</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>420.9083957314504</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L41" t="n">
-        <v>685.3559063687474</v>
+        <v>588.5891319493429</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509647</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,25 +38022,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>785.0197191991588</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1906593.948346391</v>
+        <v>1909999.439470839</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836235</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095091</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>309.1792795960036</v>
       </c>
       <c r="E2" t="n">
-        <v>354.4962379753206</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
     </row>
     <row r="5">
@@ -910,7 +910,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>343.1664278942508</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>103.7979706824274</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1150,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>277.3889913079443</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>127.8819313525575</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>120.4120358099647</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586842</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>6.943147688247178</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>172.9087972266228</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>410.9217256534534</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>141.465324968371</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>123.5955269254641</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>67.6332161998253</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T31" t="n">
-        <v>59.90320919298912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3249,10 +3249,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>270.3808622796248</v>
       </c>
       <c r="X34" t="n">
-        <v>24.32202182135258</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>270.3808622796248</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>206.384131074497</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534531</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.75769145492451</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>164.6089462561955</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,10 +3757,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873199</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744762</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>155.3817261430853</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>122.4179473152587</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4312,10 +4312,10 @@
         <v>1271.815289262514</v>
       </c>
       <c r="D2" t="n">
-        <v>913.549590655764</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>548.527081850681</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>554.041713274013</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2537.273966515961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2537.273966515961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2537.273966515961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2537.273966515961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2537.273966515961</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2163.808208254881</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1702.337823625995</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>1702.337823625995</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>1702.337823625995</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>1316.54957102775</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>905.5636662381428</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>487.5998581363297</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2512.946733515829</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2139.480975254749</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.337823625995</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>325.6879402326646</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>325.6879402326646</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>175.5713008203288</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629043</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390118</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.7425750505952</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="C13" t="n">
-        <v>637.8063921226883</v>
+        <v>713.5009252592428</v>
       </c>
       <c r="D13" t="n">
-        <v>487.6897527103525</v>
+        <v>563.384285846907</v>
       </c>
       <c r="E13" t="n">
-        <v>339.7766591279594</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>192.886711630049</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>192.886711630049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1866.513008862232</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V13" t="n">
-        <v>1611.828520656345</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.173169922382</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.183619024365</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.3910398808349</v>
+        <v>895.1493900894825</v>
       </c>
     </row>
     <row r="14">
@@ -5260,55 +5260,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2504.619866888352</v>
+        <v>2383.057343890769</v>
       </c>
       <c r="N14" t="n">
-        <v>3051.398683947134</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O14" t="n">
-        <v>3554.371154826471</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
         <v>4208.252829604874</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5390,7 +5390,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>482.6709267727787</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="C16" t="n">
-        <v>482.6709267727787</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="D16" t="n">
-        <v>339.7766591279594</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E16" t="n">
-        <v>339.7766591279594</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F16" t="n">
-        <v>192.886711630049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G16" t="n">
-        <v>192.886711630049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U16" t="n">
-        <v>1475.554715057174</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V16" t="n">
-        <v>1220.870226851287</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W16" t="n">
-        <v>931.4530568143261</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X16" t="n">
-        <v>703.4635059163088</v>
+        <v>686.6979017231758</v>
       </c>
       <c r="Y16" t="n">
-        <v>482.6709267727787</v>
+        <v>686.6979017231758</v>
       </c>
     </row>
     <row r="17">
@@ -5524,13 +5524,13 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2439.038619608515</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N17" t="n">
-        <v>2985.817436667297</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O17" t="n">
-        <v>3865.782086996752</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P17" t="n">
         <v>4260.55645335393</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C19" t="n">
-        <v>481.6968904858347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D19" t="n">
-        <v>331.580251073499</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E19" t="n">
-        <v>331.580251073499</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839441</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>481.6968904858347</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>351.3014367967911</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3507.942201196468</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5837,7 +5837,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5849,16 +5849,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
@@ -5943,19 +5943,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5992,16 +5992,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6214,10 +6214,10 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6420,16 +6420,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,52 +6448,52 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>416.1091927888621</v>
       </c>
       <c r="K29" t="n">
-        <v>888.4135721382777</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L29" t="n">
-        <v>1339.447785386687</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M29" t="n">
-        <v>2317.998088216515</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N29" t="n">
-        <v>3297.750360443162</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.722831322499</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T31" t="n">
-        <v>1895.835173990573</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U31" t="n">
-        <v>1606.732307116217</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>1352.04781891033</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>1062.630648873369</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>834.6410979753522</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>613.848518831822</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6679,16 +6679,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6697,7 +6697,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6706,25 +6706,25 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1390.197710791128</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
         <v>4667.761053946815</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390118</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>414.613856788637</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1385.724257814702</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1131.039769608815</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>841.6225995718539</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>817.0549007624069</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>596.2623216188767</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6937,52 +6937,52 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="36">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839441</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T37" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U37" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V37" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>411.3871648742116</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>411.3871648742116</v>
       </c>
     </row>
     <row r="38">
@@ -7156,46 +7156,46 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7256,13 +7256,13 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>876.4469737784534</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>707.5107908505465</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>557.3941514382108</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839441</v>
@@ -7338,13 +7338,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258585</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783413</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413808</v>
+        <v>1445.159680637269</v>
       </c>
       <c r="X40" t="n">
-        <v>391.8664332433634</v>
+        <v>1278.888017752223</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.0738540998333</v>
+        <v>1058.095438608693</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427196</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1521.866738172569</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844494</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903276</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7447,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D42" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F42" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
@@ -7493,10 +7493,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320245</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7505,7 +7505,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
         <v>2436.460902902953</v>
@@ -7523,7 +7523,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839441</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839441</v>
@@ -7575,13 +7575,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
         <v>1646.12566951853</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.939727972687</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.2552397668</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>841.8380697298394</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>750.1800661608916</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O44" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7745,22 +7745,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839441</v>
+        <v>781.811212990069</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839441</v>
+        <v>612.8750300621621</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>462.7583906498263</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>963.4596778203087</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>435.923890002883</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719081</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>201.3549853008792</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>248.840077268715</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>351.4175304294029</v>
+        <v>29.61882225792056</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570123</v>
       </c>
       <c r="K29" t="n">
-        <v>103.7862464855135</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>132.9990175570116</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476829</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>246.454569480844</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476822</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>132.9990175570106</v>
+        <v>198.7154374299943</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11311,7 +11311,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>139.490814958322</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -23472,19 +23472,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>113.6142011099682</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23658,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>7.150148049841306</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>102.114128463573</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>77.78783182310595</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,10 +24888,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T31" t="n">
-        <v>159.6457400831801</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="X34" t="n">
-        <v>201.3876335676846</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>19.32552431454019</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.0742887270128</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>61.10070913284162</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696571</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>130.8301120625276</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>43.60786094376952</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583909</v>
@@ -26328,34 +26328,34 @@
         <v>536060.4122974277</v>
       </c>
       <c r="G2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="H2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>536060.4122974273</v>
       </c>
-      <c r="I2" t="n">
-        <v>536060.4122974272</v>
-      </c>
       <c r="J2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974279</v>
       </c>
       <c r="K2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974274</v>
       </c>
       <c r="L2" t="n">
         <v>536060.4122974273</v>
       </c>
       <c r="M2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="N2" t="n">
         <v>536060.4122974272</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>536060.4122974273</v>
       </c>
-      <c r="O2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="P2" t="n">
-        <v>536060.4122974275</v>
+        <v>536060.4122974277</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,7 +26401,7 @@
         <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
-        <v>1.569592313899193e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="I4" t="n">
         <v>25090.7236749938</v>
@@ -26444,22 +26444,22 @@
         <v>25090.72367499381</v>
       </c>
       <c r="K4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="M4" t="n">
         <v>25090.72367499381</v>
       </c>
-      <c r="M4" t="n">
-        <v>25090.7236749938</v>
-      </c>
       <c r="N4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499379</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26496,10 +26496,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26511,7 +26511,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.2685472944</v>
+        <v>-319688.2685472945</v>
       </c>
       <c r="C6" t="n">
-        <v>270279.6106672501</v>
+        <v>270279.6106672499</v>
       </c>
       <c r="D6" t="n">
         <v>270279.6106672499</v>
       </c>
       <c r="E6" t="n">
-        <v>-313463.1985269443</v>
+        <v>-312858.4391149124</v>
       </c>
       <c r="F6" t="n">
-        <v>413914.2154664623</v>
+        <v>414518.9748784943</v>
       </c>
       <c r="G6" t="n">
-        <v>413914.2154664623</v>
+        <v>414518.9748784943</v>
       </c>
       <c r="H6" t="n">
-        <v>413914.2154664619</v>
+        <v>414518.9748784944</v>
       </c>
       <c r="I6" t="n">
-        <v>413914.2154664618</v>
+        <v>414518.974878494</v>
       </c>
       <c r="J6" t="n">
-        <v>237490.9962738695</v>
+        <v>238095.7556859017</v>
       </c>
       <c r="K6" t="n">
-        <v>413914.2154664618</v>
+        <v>414518.9748784941</v>
       </c>
       <c r="L6" t="n">
-        <v>413914.2154664619</v>
+        <v>414518.974878494</v>
       </c>
       <c r="M6" t="n">
-        <v>284271.9006275171</v>
+        <v>284876.6600395498</v>
       </c>
       <c r="N6" t="n">
-        <v>413914.2154664618</v>
+        <v>414518.9748784939</v>
       </c>
       <c r="O6" t="n">
-        <v>413914.215466462</v>
+        <v>414518.974878494</v>
       </c>
       <c r="P6" t="n">
-        <v>413914.2154664623</v>
+        <v>414518.9748784943</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26773,10 +26773,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>45.50376202467936</v>
       </c>
       <c r="E2" t="n">
-        <v>27.43413209694114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8578157762261</v>
       </c>
     </row>
     <row r="5">
@@ -27630,7 +27630,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>70.61774212654421</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>70.61774212654413</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>46.53378145641284</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>46.53378145641408</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>26.02192683660444</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32095,10 +32095,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33043,10 +33043,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>740.276101131106</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>647.6020634880869</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35743,10 +35743,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>890.3386462596296</v>
+        <v>568.5399380881473</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
@@ -35901,7 +35901,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
         <v>463.1092954636242</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>258.3236387357542</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554005</v>
@@ -36135,7 +36135,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>625.2391015115028</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257249</v>
       </c>
       <c r="K29" t="n">
-        <v>440.977533040914</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37074,25 +37074,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>671.9201333872384</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O35" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302269</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>798.7564048937555</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359016</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636243</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127261</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>588.5891319493429</v>
+        <v>654.3055518223265</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509647</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>470.444344195426</v>
       </c>
       <c r="L44" t="n">
         <v>873.2513289427826</v>
@@ -38031,7 +38031,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
         <v>398.7619862193719</v>
